--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R092dec00ec7f4e28"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R6f07ce1ba64f456b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R6f07ce1ba64f456b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rda9c9194dc444f34"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rda9c9194dc444f34"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rc049968d21004e9f"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rc049968d21004e9f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R9962cf21a66b4707"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -28,18 +28,18 @@
     <x:font>
       <x:b/>
       <x:sz val="12"/>
-      <x:color rgb="FFFFFF"/>
+      <x:color rgb="FFFFFFFF"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
@@ -52,7 +52,7 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="2E75B6"/>
+        <x:fgColor rgb="FF2E75B6"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R9962cf21a66b4707"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rd6c055cf7ae444f0"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rd6c055cf7ae444f0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R849643fe68914fb9"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R849643fe68914fb9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R6c24bca7282a4c17"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R6c24bca7282a4c17"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R316a0395969745b6"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R316a0395969745b6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rfb8767d499624fb9"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rfb8767d499624fb9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R6f549ef6c9b548d6"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R6f549ef6c9b548d6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R58ad98bc29f54488"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R58ad98bc29f54488"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rfd2fa9d021c84417"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rfd2fa9d021c84417"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rff48d11b002c4a26"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rff48d11b002c4a26"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rdcc5be0042b6445d"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rdcc5be0042b6445d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rc34007ae73294a0e"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rc34007ae73294a0e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R5196eb35a2034907"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R5196eb35a2034907"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Recf51d26d6ed4783"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Recf51d26d6ed4783"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R3b9811d621154536"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R3b9811d621154536"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rfe49b2af61d24977"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rfe49b2af61d24977"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rded5881d97aa4a98"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rded5881d97aa4a98"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rae7a60b0f7474b24"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rae7a60b0f7474b24"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R1646cb4c65eb448b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R1646cb4c65eb448b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R58174bbc56e84301"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R58174bbc56e84301"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Ra8230d24fcba4cc3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Ra8230d24fcba4cc3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rc64f17cdd5844343"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rc64f17cdd5844343"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R964af5fcd84341ef"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R964af5fcd84341ef"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R3ab45463e6104599"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R3ab45463e6104599"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R097c3a0ed1ac493c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R097c3a0ed1ac493c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Re1cf62e597484e98"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Re1cf62e597484e98"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R8cddff7d332144c6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R8cddff7d332144c6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rc8c67a04488f4de8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rc8c67a04488f4de8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rb8ea6e04273643fa"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rb8ea6e04273643fa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rf886cbb84e884e8a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rf886cbb84e884e8a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R23c5824daab24325"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R23c5824daab24325"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R935b6587a0e94a0d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R935b6587a0e94a0d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rc0b3a8f62e0d4405"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rc0b3a8f62e0d4405"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Re8ac547dc46c4acd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Re8ac547dc46c4acd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rc2bdc192e05941ac"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Rc2bdc192e05941ac"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R35bf9eff6ea34cdf"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R35bf9eff6ea34cdf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R1a584119000c466f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R1a584119000c466f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R108a24738d0d4935"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R108a24738d0d4935"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Racff0dbf925647f3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Racff0dbf925647f3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R5ee15f5893954838"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R5ee15f5893954838"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R93b858642f6141f1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/23_AverageFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="R93b858642f6141f1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AverageFormula" sheetId="1" r:id="Re20e4fe44bd74c30"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
